--- a/biology/Virologie/Badnavirus/Badnavirus.xlsx
+++ b/biology/Virologie/Badnavirus/Badnavirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Badnavirus est un genre de virus de la famille des Caulimoviridae, ordre des Ortervirales, dont les hôtes naturels sont les plantes (phytovirus). Ce sont des virus bacciliformes, dont le génome monopartite est constitué d'ADN circulaire à double brin, et présente trois cadres de lecture ouverts[1].
-Ces virus sont des virus rétroïdes ou pararétrovirus, qui utilisent la transcriptase inverse pour répliquer leur génome[2].
-Le nom générique « Badnavirus », avec le préfixe Badna-, fait référence à la forme du virion (Ba pour bacilliforme) et au type d'acide nucléique (DNA pour ADN)[3].
-On a identifié 59 espèces dans ce genre, dont l'espèce-type, le virus de la marbrure jaune du Commelina  (CoYMV, Commelina yellow mottle virus). Parmi les maladies associées à ce genre figure l'œdème des pousses du cacaoyer (CSSV, cacao swollen shoot) qui se manifeste par divers symptômes : chlorose des feuilles, nécrose des racines, liseré nervaire rouge sur les jeunes feuilles, tachetures des cabosses et gonflement des tiges et des racines suivi d'un dépérissement. L'infection diminue le rendement de 25 % en un an, de 50 % en deux ans et finit en général par tuer les arbres en 3 à 4 ans[4],[5].
-Des virus du genre Badnavirus sont responsables de très graves maladies de cultures vivrières importantes, comme le riz, la canne à sucre, le bananier ou le cacaoyer. Ils attaquent également des cultures ornementales appartenant entre autres aux genres Kalanchoe, Canna, Commelina[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Badnavirus est un genre de virus de la famille des Caulimoviridae, ordre des Ortervirales, dont les hôtes naturels sont les plantes (phytovirus). Ce sont des virus bacciliformes, dont le génome monopartite est constitué d'ADN circulaire à double brin, et présente trois cadres de lecture ouverts.
+Ces virus sont des virus rétroïdes ou pararétrovirus, qui utilisent la transcriptase inverse pour répliquer leur génome.
+Le nom générique « Badnavirus », avec le préfixe Badna-, fait référence à la forme du virion (Ba pour bacilliforme) et au type d'acide nucléique (DNA pour ADN).
+On a identifié 59 espèces dans ce genre, dont l'espèce-type, le virus de la marbrure jaune du Commelina  (CoYMV, Commelina yellow mottle virus). Parmi les maladies associées à ce genre figure l'œdème des pousses du cacaoyer (CSSV, cacao swollen shoot) qui se manifeste par divers symptômes : chlorose des feuilles, nécrose des racines, liseré nervaire rouge sur les jeunes feuilles, tachetures des cabosses et gonflement des tiges et des racines suivi d'un dépérissement. L'infection diminue le rendement de 25 % en un an, de 50 % en deux ans et finit en général par tuer les arbres en 3 à 4 ans,.
+Des virus du genre Badnavirus sont responsables de très graves maladies de cultures vivrières importantes, comme le riz, la canne à sucre, le bananier ou le cacaoyer. Ils attaquent également des cultures ornementales appartenant entre autres aux genres Kalanchoe, Canna, Commelina.
 </t>
         </is>
       </c>
